--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-DATA\GoogleDriveYork\Writings\SOSYM-2019\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687B6B47-6002-405B-B4AA-BFB5FE7BC977}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9591D807-B954-402A-BCAA-DB58EDEBACE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10814" windowHeight="4211" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39548,18 +39548,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471C6D6B-0B07-4DE8-B020-3320E9CB0D91}">
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AT37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="AO11" activeCellId="1" sqref="AH11 AO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>output!A1</f>
         <v>num</v>
@@ -39725,7 +39725,7 @@
         <v>ecm</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>output!A2</f>
         <v>1</v>
@@ -39891,7 +39891,7 @@
         <v>4.1907257439999999</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>output!A3</f>
         <v>2</v>
@@ -40057,7 +40057,7 @@
         <v>5.955158688</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>output!A4</f>
         <v>3</v>
@@ -40222,8 +40222,12 @@
         <f>output!AO4/1000000000</f>
         <v>8.1583863680000004</v>
       </c>
+      <c r="AS4">
+        <f>AG11/(60*60)</f>
+        <v>1.732837839123889</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>output!A5</f>
         <v>4</v>
@@ -40388,8 +40392,16 @@
         <f>output!AO5/1000000000</f>
         <v>9.7583226320000005</v>
       </c>
+      <c r="AS5">
+        <f>AS4-1</f>
+        <v>0.732837839123889</v>
+      </c>
+      <c r="AT5">
+        <f>AS5*60</f>
+        <v>43.970270347433342</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>output!A6</f>
         <v>5</v>
@@ -40554,8 +40566,12 @@
         <f>output!AO6/1000000000</f>
         <v>11.776038807999999</v>
       </c>
+      <c r="AS6">
+        <f>AN11-60</f>
+        <v>55.861448326000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>output!A7</f>
         <v>6</v>
@@ -40721,7 +40737,7 @@
         <v>1.452512544</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>output!A8</f>
         <v>7</v>
@@ -40887,7 +40903,7 @@
         <v>2.5293160480000001</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>output!A9</f>
         <v>8</v>
@@ -41053,7 +41069,7 @@
         <v>17.435486248</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>output!A10</f>
         <v>9</v>
@@ -41219,7 +41235,7 @@
         <v>5.0397340320000001</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>output!A11</f>
         <v>10</v>
@@ -41288,7 +41304,7 @@
         <f>output!Q11</f>
         <v>3345897768</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="6">
         <f>output!R11/1000000000</f>
         <v>4.8674092519999999</v>
       </c>
@@ -41348,7 +41364,7 @@
         <f>output!AF11/1000000000</f>
         <v>8.9359795599999998</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="6">
         <f>output!AG11/1000000000</f>
         <v>6238.2162208460004</v>
       </c>
@@ -41376,7 +41392,7 @@
         <f>output!AM11/1000000000</f>
         <v>2.3112485519999999</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" s="6">
         <f>output!AN11/1000000000</f>
         <v>115.861448326</v>
       </c>
@@ -43633,6 +43649,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="I33:M33"/>
     <mergeCell ref="S32:W32"/>
     <mergeCell ref="S33:W33"/>
     <mergeCell ref="S34:W34"/>
@@ -43640,11 +43661,6 @@
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="I33:M33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
